--- a/output/0/tRNA-Arg-ACG-1-1.xlsx
+++ b/output/0/tRNA-Arg-ACG-1-1.xlsx
@@ -12,168 +12,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="100">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>26328370</t>
-  </si>
-  <si>
-    <t>26328393</t>
+    <t>26327817</t>
+  </si>
+  <si>
+    <t>26327840</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>26327837</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>TAGTCGTGGCCGAGTGGTTA</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>25% (41)</t>
+  </si>
+  <si>
+    <t>74% (57)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>26327823</t>
+  </si>
+  <si>
+    <t>26327846</t>
+  </si>
+  <si>
+    <t>26327843</t>
+  </si>
+  <si>
+    <t>TGGCCGAGTGGTTAAGGCGA</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>59% (53)</t>
+  </si>
+  <si>
+    <t>71% (55)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>26327826</t>
+  </si>
+  <si>
+    <t>26327849</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>26328373</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>CGCGTTATCCATTGCGCCAC</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>27% (34)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>26328381</t>
-  </si>
-  <si>
-    <t>26328404</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>26328401</t>
-  </si>
-  <si>
-    <t>ATGGATAACGCGTCTGACTA</t>
+    <t>26327829</t>
+  </si>
+  <si>
+    <t>AGTCCATCGCCTTAACCACT</t>
   </si>
   <si>
     <t>CGG</t>
   </si>
   <si>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>13% (25)</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>26327839</t>
+  </si>
+  <si>
+    <t>26327862</t>
+  </si>
+  <si>
+    <t>26327859</t>
+  </si>
+  <si>
+    <t>GCGATGGACTAGAAATCCAT</t>
+  </si>
+  <si>
+    <t>53% (51)</t>
+  </si>
+  <si>
+    <t>76% (58)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>26327863</t>
+  </si>
+  <si>
+    <t>26327860</t>
+  </si>
+  <si>
+    <t>CGATGGACTAGAAATCCATT</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>43% (48)</t>
+  </si>
+  <si>
+    <t>3% (12)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>26327841</t>
+  </si>
+  <si>
+    <t>26327864</t>
+  </si>
+  <si>
+    <t>26327861</t>
+  </si>
+  <si>
+    <t>GATGGACTAGAAATCCATTG</t>
+  </si>
+  <si>
+    <t>100% (75)</t>
+  </si>
+  <si>
+    <t>63% (51)</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>26327855</t>
+  </si>
+  <si>
+    <t>26327878</t>
+  </si>
+  <si>
+    <t>26327858</t>
+  </si>
+  <si>
+    <t>CCTGCGCGGGGAGACCCCAA</t>
+  </si>
+  <si>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>98% (83)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>26327875</t>
+  </si>
+  <si>
+    <t>CCATTGGGGTCTCCCCGCGC</t>
+  </si>
+  <si>
+    <t>87% (66)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>26327867</t>
+  </si>
+  <si>
+    <t>26327890</t>
+  </si>
+  <si>
+    <t>26327870</t>
+  </si>
+  <si>
+    <t>GCAGGATTCGAACCTGCGCG</t>
+  </si>
+  <si>
+    <t>94% (66)</t>
+  </si>
+  <si>
+    <t>61% (50)</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>26327868</t>
+  </si>
+  <si>
+    <t>26327891</t>
+  </si>
+  <si>
+    <t>26327871</t>
+  </si>
+  <si>
+    <t>GGCAGGATTCGAACCTGCGC</t>
+  </si>
+  <si>
     <t>50% (50)</t>
   </si>
   <si>
-    <t>69% (54)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>26328397</t>
-  </si>
-  <si>
-    <t>26328420</t>
-  </si>
-  <si>
-    <t>26328417</t>
-  </si>
-  <si>
-    <t>ACTACGGATCAGAAGATTCC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>18% (29)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>26328409</t>
-  </si>
-  <si>
-    <t>26328432</t>
-  </si>
-  <si>
-    <t>26328429</t>
-  </si>
-  <si>
-    <t>AAGATTCCAGGTTCGACTCC</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>16% (27)</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>12% (24)</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>26327869</t>
+  </si>
+  <si>
+    <t>26327892</t>
+  </si>
+  <si>
+    <t>26327872</t>
+  </si>
+  <si>
+    <t>CGGCAGGATTCGAACCTGCG</t>
+  </si>
+  <si>
+    <t>95% (67)</t>
+  </si>
+  <si>
+    <t>84% (64)</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
-    <t>26328413</t>
-  </si>
-  <si>
-    <t>26328436</t>
-  </si>
-  <si>
-    <t>26328433</t>
-  </si>
-  <si>
-    <t>TTCCAGGTTCGACTCCTGGC</t>
-  </si>
-  <si>
-    <t>10% (22)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>26328415</t>
-  </si>
-  <si>
-    <t>26328438</t>
-  </si>
-  <si>
-    <t>26328418</t>
-  </si>
-  <si>
-    <t>AGCCAGCCAGGAGTCGAACC</t>
+    <t>26327876</t>
+  </si>
+  <si>
+    <t>26327899</t>
+  </si>
+  <si>
+    <t>26327896</t>
+  </si>
+  <si>
+    <t>GGTTCGAATCCTGCCGACTA</t>
+  </si>
+  <si>
+    <t>63% (54)</t>
+  </si>
+  <si>
+    <t>77% (59)</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -218,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -241,10 +379,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -297,43 +435,43 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -347,22 +485,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -415,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
@@ -436,7 +574,7 @@
         <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
@@ -465,52 +603,52 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
-        <v>9</v>
-      </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -536,10 +674,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
         <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -554,27 +692,381 @@
         <v>53</v>
       </c>
       <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
         <v>9</v>
       </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" t="s">
         <v>3</v>
       </c>
     </row>
